--- a/excel_etc/openpyxl1.xlsx
+++ b/excel_etc/openpyxl1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,6 +421,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>42</v>
+      </c>
+      <c r="C1" t="n">
+        <v>333</v>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" t="n">
         <v>42</v>
@@ -468,6 +476,23 @@
       </c>
       <c r="C6" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bbb</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ccc</t>
+        </is>
       </c>
     </row>
   </sheetData>
